--- a/Casos de prueba/TC-4.xlsx
+++ b/Casos de prueba/TC-4.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/Casos de prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DBC578-79B1-944F-B7A4-3C59CDC32BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D87793-8A6C-A743-86AA-584A796992C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="16260" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC-4" sheetId="1" r:id="rId1"/>
+    <sheet name="TC-Modificar_cuenta" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -599,20 +599,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -657,9 +645,81 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -669,9 +729,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -683,63 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,506 +1077,506 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>2.1</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="D10" s="22">
+      <c r="B10" s="17"/>
+      <c r="D10" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="D11" s="23">
+      <c r="B11" s="17"/>
+      <c r="D11" s="19">
         <v>4</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>5</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <v>6</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="23">
+      <c r="D14" s="19">
         <v>7</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="32" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32" t="s">
+      <c r="J18" s="51"/>
+      <c r="K18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32" t="s">
+      <c r="L18" s="51"/>
+      <c r="M18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="32"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="37" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="37" t="s">
+      <c r="L19" s="25"/>
+      <c r="M19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" spans="1:14" ht="46" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="G20" s="44" t="s">
+      <c r="E20" s="30"/>
+      <c r="G20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="45">
+      <c r="A21" s="32">
         <v>1</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="G21" s="48" t="s">
+      <c r="E21" s="34"/>
+      <c r="G21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="23" t="s">
+      <c r="M21" s="35"/>
+      <c r="N21" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="32">
         <v>2</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="G22" s="48" t="s">
+      <c r="E22" s="34"/>
+      <c r="G22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="23" t="s">
+      <c r="M22" s="35"/>
+      <c r="N22" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23" s="32">
         <v>3</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="G23" s="48" t="s">
+      <c r="E23" s="34"/>
+      <c r="G23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="48"/>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
+      <c r="A24" s="32">
         <v>4</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="21"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="21"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="21"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50" t="s">
+      <c r="H28" s="37"/>
+      <c r="I28" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50" t="s">
+      <c r="L28" s="37"/>
+      <c r="M28" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="N28" s="50"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="1:14" ht="75" x14ac:dyDescent="0.2">
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
